--- a/LoowooTech.Land.Zhoushan.Web/templates/舟山整理/7-矿业权市场.xlsx
+++ b/LoowooTech.Land.Zhoushan.Web/templates/舟山整理/7-矿业权市场.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19005" windowHeight="10950"/>
+    <workbookView windowWidth="19095" windowHeight="7830"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,9 +16,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25">
-  <si>
-    <t>{Form=}</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35">
+  <si>
+    <t>{Form=6}</t>
   </si>
   <si>
     <t>采矿权情况（个）</t>
@@ -33,6 +33,12 @@
     <t>采矿权许可证数</t>
   </si>
   <si>
+    <t>{Value=6}</t>
+  </si>
+  <si>
+    <t>{RateValue=1}</t>
+  </si>
+  <si>
     <t xml:space="preserve">    其中：新立</t>
   </si>
   <si>
@@ -48,6 +54,9 @@
     <t xml:space="preserve">    缴纳采矿权出让价款(万元)</t>
   </si>
   <si>
+    <t>{Value=5}</t>
+  </si>
+  <si>
     <t>分区采矿权情况（个）</t>
   </si>
   <si>
@@ -63,6 +72,15 @@
     <t>全市</t>
   </si>
   <si>
+    <t>{Value=6 Node=72}</t>
+  </si>
+  <si>
+    <t>{Value=6 Node=73}</t>
+  </si>
+  <si>
+    <t>{Value=6 Node=74}</t>
+  </si>
+  <si>
     <t>市本级</t>
   </si>
   <si>
@@ -91,6 +109,18 @@
   </si>
   <si>
     <t>资源补偿费</t>
+  </si>
+  <si>
+    <t>{value=5 Node=137}</t>
+  </si>
+  <si>
+    <t>{value=5 Node=138}</t>
+  </si>
+  <si>
+    <t>{value=5 Node=139}</t>
+  </si>
+  <si>
+    <t>{value=5 Node=140}</t>
   </si>
 </sst>
 </file>
@@ -100,10 +130,10 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -120,6 +150,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -135,17 +172,123 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -156,112 +299,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -278,49 +315,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -332,109 +465,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -481,32 +518,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -516,35 +549,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -565,16 +569,49 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -586,149 +623,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -747,8 +784,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1072,15 +1112,16 @@
   <sheetPr/>
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23:E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="30.5" customWidth="1"/>
     <col min="2" max="2" width="15.625" customWidth="1"/>
-    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="3" max="3" width="19.875" customWidth="1"/>
+    <col min="4" max="4" width="18.625" customWidth="1"/>
     <col min="5" max="5" width="14.25" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1117,32 +1158,44 @@
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -1151,25 +1204,31 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -1178,38 +1237,46 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" ht="14.25" spans="1:5">
       <c r="A12" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="D12" s="5"/>
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" ht="14.25" spans="1:5">
+    <row r="14" spans="1:5">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -1218,135 +1285,219 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>20</v>
+      </c>
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
+        <v>22</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>20</v>
+      </c>
       <c r="E17" s="2"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
+        <v>23</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>20</v>
+      </c>
       <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
+      <c r="C19" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>20</v>
+      </c>
       <c r="E19" s="2"/>
     </row>
     <row r="20" ht="14.25" spans="1:5">
       <c r="A20" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
+      <c r="D20" s="7" t="s">
+        <v>20</v>
+      </c>
       <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="3" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
+        <v>22</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
+        <v>23</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="28" ht="14.25" spans="1:5">
       <c r="A28" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
+        <v>25</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2"/>
